--- a/src/main/java/testcases/Report_BrickLayer.xlsx
+++ b/src/main/java/testcases/Report_BrickLayer.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
@@ -80,7 +80,7 @@
     <t>TSID</t>
   </si>
   <si>
-    <t>Elements</t>
+    <t>Params</t>
   </si>
   <si>
     <t>ProceedOnFail</t>
@@ -89,10 +89,10 @@
     <t>DataSet</t>
   </si>
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>Element</t>
+    <t>Verify_step</t>
+  </si>
+  <si>
+    <t>Param_verify</t>
   </si>
   <si>
     <t>Expected</t>
@@ -125,10 +125,7 @@
     <t>Chọn khóa AI Speak</t>
   </si>
   <si>
-    <t>u_getCurrentScence()</t>
-  </si>
-  <si>
-    <t>AISpeakingScene</t>
+    <t>true</t>
   </si>
   <si>
     <t>TS04</t>
@@ -149,13 +146,7 @@
     <t>a,b</t>
   </si>
   <si>
-    <t>u_elementDisplay(arg)</t>
-  </si>
-  <si>
     <t>BrickLayer.BE.RS01(Clone)</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
 </sst>
 </file>
@@ -253,14 +244,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +871,7 @@
       <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="11" t="s">
@@ -1023,11 +1014,11 @@
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -1055,10 +1046,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>7</v>
@@ -1067,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>18</v>
@@ -1102,10 +1093,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>7</v>
@@ -1114,20 +1105,20 @@
         <v>8</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>45</v>
+      <c r="I6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>

--- a/src/main/java/testcases/Report_BrickLayer.xlsx
+++ b/src/main/java/testcases/Report_BrickLayer.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="pM57jNkDIdEc/yq/jXKnGgh16pAo5tyjJ4umdIaKheo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="3eCYqC8hCcgeO1pkSzjNegHJWhsLlhh01exgjLH8StI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
@@ -68,6 +68,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Error</t>
+  </si>
+  <si>
     <t>TC01</t>
   </si>
   <si>
@@ -92,16 +95,13 @@
     <t>Verify_step</t>
   </si>
   <si>
-    <t>Param_verify</t>
+    <t>Param_verify_Step</t>
   </si>
   <si>
     <t>Expected</t>
   </si>
   <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>Error</t>
   </si>
   <si>
     <t>Image</t>
@@ -752,7 +752,9 @@
       <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -777,13 +779,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -831,16 +833,15 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="12.13"/>
     <col customWidth="1" min="3" max="3" width="43.75"/>
-    <col customWidth="1" min="4" max="4" width="24.88"/>
-    <col customWidth="1" min="5" max="5" width="31.25"/>
-    <col customWidth="1" min="6" max="6" width="25.63"/>
-    <col customWidth="1" min="7" max="7" width="27.0"/>
-    <col customWidth="1" min="8" max="8" width="20.75"/>
-    <col customWidth="1" min="9" max="9" width="25.5"/>
-    <col customWidth="1" min="10" max="10" width="25.63"/>
-    <col customWidth="1" min="11" max="11" width="28.5"/>
-    <col customWidth="1" min="13" max="13" width="24.63"/>
-    <col customWidth="1" min="14" max="14" width="20.5"/>
+    <col customWidth="1" min="4" max="4" width="31.25"/>
+    <col customWidth="1" min="5" max="5" width="25.63"/>
+    <col customWidth="1" min="6" max="6" width="27.0"/>
+    <col customWidth="1" min="7" max="7" width="20.75"/>
+    <col customWidth="1" min="8" max="8" width="25.5"/>
+    <col customWidth="1" min="9" max="9" width="25.63"/>
+    <col customWidth="1" min="10" max="10" width="28.5"/>
+    <col customWidth="1" min="12" max="12" width="24.63"/>
+    <col customWidth="1" min="13" max="13" width="20.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -848,49 +849,47 @@
         <v>12</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H1" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
+      <c r="J1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="L1" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="9" t="s">
         <v>28</v>
       </c>
+      <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
@@ -902,11 +901,10 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>29</v>
@@ -914,18 +912,18 @@
       <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="14"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
@@ -945,11 +943,10 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>31</v>
@@ -958,19 +955,17 @@
         <v>32</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -990,11 +985,10 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>33</v>
@@ -1003,23 +997,21 @@
         <v>34</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
@@ -1039,11 +1031,10 @@
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>36</v>
@@ -1052,21 +1043,19 @@
         <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1086,11 +1075,10 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>39</v>
@@ -1099,27 +1087,25 @@
         <v>40</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1139,35 +1125,31 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L6 M1:N1">
+  <conditionalFormatting sqref="K1:K6 L1:M1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L6 M1:N1">
+  <conditionalFormatting sqref="K1:K6 L1:M1">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L6 M1:N1">
+  <conditionalFormatting sqref="K1:K6 L1:M1">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E6 I2:I6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6 H2:H6">
       <formula1>Keywords!$A$2:$A6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6">
-      <formula1>Keywords!$C$2:$C6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A6">
       <formula1>TestCase!$A$2:$A6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/java/testcases/Report_BrickLayer.xlsx
+++ b/src/main/java/testcases/Report_BrickLayer.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
@@ -125,6 +125,9 @@
     <t>Chọn khóa AI Speak</t>
   </si>
   <si>
+    <t>BrickLayer.BE.RS01(Clone)</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>a,b</t>
-  </si>
-  <si>
-    <t>BrickLayer.BE.RS01(Clone)</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1007,11 @@
       <c r="H4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1037,16 +1039,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>19</v>
@@ -1081,16 +1083,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>19</v>
@@ -1100,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>

--- a/src/main/java/testcases/Report_BrickLayer.xlsx
+++ b/src/main/java/testcases/Report_BrickLayer.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\keyworddriven.monkey.game\src\main\java\testcases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A91E42-D9C9-41D7-8A95-C8019B4B978D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Keywords" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TestCase" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="TestSteps" sheetId="3" r:id="rId6"/>
+    <sheet name="Keywords" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="2" r:id="rId2"/>
+    <sheet name="Biểu đồ" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSteps" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="3eCYqC8hCcgeO1pkSzjNegHJWhsLlhh01exgjLH8StI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="ATDBQs/uzUHHEJhdgPoIiRbvbeOuyAdYClbV+7A7HR4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
   <si>
     <t>Keyword</t>
   </si>
@@ -80,6 +90,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>TSID</t>
   </si>
   <si>
@@ -147,27 +160,40 @@
   </si>
   <si>
     <t>a,b</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>| Verify | expected [fail] but found [true]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -177,7 +203,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,113 +225,148 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9FC5E8"/>
           <bgColor rgb="FF9FC5E8"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FFD9D9D9"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
+          <fgColor rgb="FFF4CCCC"/>
+          <bgColor rgb="FFF4CCCC"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9FC5E8"/>
+          <bgColor rgb="FF9FC5E8"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8610600" cy="6276975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="923072619" name="Chart1" title="Biểu đồ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006BF80437}"/>
+            </a:ext>
+            <a:ext uri="GoogleSheetsCustomDataVersion1">
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" pictureOfChart="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -495,26 +556,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="40.5"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="29.25"/>
-    <col customWidth="1" min="4" max="7" width="12.63"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125"/>
+    <col min="2" max="2" customWidth="true" width="9.0"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625"/>
+    <col min="4" max="7" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,14 +613,14 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
@@ -584,14 +648,14 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
@@ -619,14 +683,14 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -652,14 +716,14 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -685,11 +749,11 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3"/>
@@ -719,50 +783,204 @@
       <c r="AA6" s="3"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="12.5703125"/>
+    <col min="2" max="2" customWidth="true" width="54.5703125"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125"/>
+    <col min="4" max="6" customWidth="true" width="12.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D2">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"SKIP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <sheetProtection sheet="1" objects="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="54.63"/>
-    <col customWidth="1" min="3" max="3" width="15.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="2" customWidth="true" width="12.140625"/>
+    <col min="3" max="3" customWidth="true" width="43.7109375"/>
+    <col min="4" max="4" customWidth="true" width="31.28515625"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125"/>
+    <col min="6" max="6" customWidth="true" width="27.0"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375"/>
+    <col min="8" max="8" customWidth="true" width="25.42578125"/>
+    <col min="9" max="9" customWidth="true" width="25.5703125"/>
+    <col min="10" max="10" customWidth="true" width="28.42578125"/>
+    <col min="12" max="12" customWidth="true" width="24.5703125"/>
+    <col min="13" max="13" customWidth="true" width="20.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="M1" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -776,26 +994,36 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -810,351 +1038,246 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+  <conditionalFormatting sqref="L1:M1 K1:K6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"SKIP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="2" width="12.13"/>
-    <col customWidth="1" min="3" max="3" width="43.75"/>
-    <col customWidth="1" min="4" max="4" width="31.25"/>
-    <col customWidth="1" min="5" max="5" width="25.63"/>
-    <col customWidth="1" min="6" max="6" width="27.0"/>
-    <col customWidth="1" min="7" max="7" width="20.75"/>
-    <col customWidth="1" min="8" max="8" width="25.5"/>
-    <col customWidth="1" min="9" max="9" width="25.63"/>
-    <col customWidth="1" min="10" max="10" width="28.5"/>
-    <col customWidth="1" min="12" max="12" width="24.63"/>
-    <col customWidth="1" min="13" max="13" width="20.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K1:K6 L1:M1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K6 L1:M1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K6 L1:M1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"SKIP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D6 H2:H6">
-      <formula1>Keywords!$A$2:$A6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A6">
-      <formula1>TestCase!$A$2:$A6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Keywords!$A$2:$A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D6 H2:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
+          <x14:formula1>
+            <xm:f>TestCase!$A$2:$A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/java/testcases/Report_BrickLayer.xlsx
+++ b/src/main/java/testcases/Report_BrickLayer.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
   <si>
     <t>Keyword</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>| Verify | expected [fail] but found [true]</t>
+  </si>
+  <si>
+    <t>Method execute_action | Exception desc : null</t>
   </si>
 </sst>
 </file>
@@ -1021,9 +1024,11 @@
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
       <c r="K2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0"/>
+        <v>46</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>48</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1117,10 +1122,10 @@
         <v>45</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
